--- a/regions/6/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
+++ b/regions/6/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +142,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -523,16 +524,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -551,7 +552,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -570,7 +571,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="4"/>
       <c r="B3" s="19">
         <v>2006</v>
@@ -617,9 +618,14 @@
       <c r="P3" s="18">
         <v>2020</v>
       </c>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="18">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -668,9 +674,14 @@
       <c r="P4" s="13">
         <v>481.3</v>
       </c>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="13">
+        <v>625.9</v>
+      </c>
+      <c r="R4" s="13">
+        <v>999.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
@@ -719,9 +730,14 @@
       <c r="P5" s="13">
         <v>524.1</v>
       </c>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="13">
+        <v>780.2</v>
+      </c>
+      <c r="R5" s="13">
+        <v>1049.9000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
@@ -770,9 +786,14 @@
       <c r="P6" s="9">
         <v>4891</v>
       </c>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="9">
+        <v>5847</v>
+      </c>
+      <c r="R6" s="9">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
@@ -821,9 +842,14 @@
       <c r="P7" s="9">
         <v>4599</v>
       </c>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="9">
+        <v>5201</v>
+      </c>
+      <c r="R7" s="9">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
@@ -872,9 +898,14 @@
       <c r="P8" s="13">
         <v>1428.8</v>
       </c>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="13">
+        <v>1712.9</v>
+      </c>
+      <c r="R8" s="13">
+        <v>1847.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
@@ -923,9 +954,14 @@
       <c r="P9" s="13">
         <v>327.60000000000002</v>
       </c>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="13">
+        <v>559.70000000000005</v>
+      </c>
+      <c r="R9" s="13">
+        <v>735.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
@@ -974,9 +1010,14 @@
       <c r="P10" s="13">
         <v>79.5</v>
       </c>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="13">
+        <v>108.3</v>
+      </c>
+      <c r="R10" s="13">
+        <v>122.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="17" t="s">
         <v>3</v>
       </c>
@@ -1025,9 +1066,14 @@
       <c r="P11" s="13">
         <v>196.5</v>
       </c>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="13">
+        <v>220.5</v>
+      </c>
+      <c r="R11" s="13">
+        <v>313.89999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
@@ -1076,9 +1122,14 @@
       <c r="P12" s="13">
         <v>90.2</v>
       </c>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q12" s="13">
+        <v>42.7</v>
+      </c>
+      <c r="R12" s="13">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="17" t="s">
         <v>4</v>
       </c>
@@ -1127,9 +1178,14 @@
       <c r="P13" s="13">
         <v>367.1</v>
       </c>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q13" s="13">
+        <v>578.1</v>
+      </c>
+      <c r="R13" s="13">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1146,7 +1202,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1161,48 +1217,48 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="5" customFormat="1" ht="12.75">
       <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8">
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:8">
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:8">
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:8">
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:8">
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:8">
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:8">
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:8">
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:8">
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:8">
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:8">
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:8">
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:8">
       <c r="H29" s="20"/>
     </row>
   </sheetData>
